--- a/DataSheets/demowebshop.xlsx
+++ b/DataSheets/demowebshop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QTP-Hybrid-Framework\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5112BC94-0A3A-4397-B1F8-8211B7C96784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B40A99-85CE-438D-AD24-0558F141769A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -694,7 +694,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -796,7 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -919,7 +921,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1069,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1306,7 +1308,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
